--- a/Data/metadaten_grafiken_eidgenoessische_abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenoessische_abstimmungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/SDA_eidgenoessische_abstimmungen/20260308_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_C8A05664C3574AFC124848F9E2CB447E115BF177" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7D1BDD-A867-4121-91FA-04748463BDC4}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_C8A05664C3574AFC124848F9E2CB447E115BF177" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A64E4E6B-58F2-47A6-85EF-7CD08C33EDEE}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -2910,21 +2910,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G5" t="s">
@@ -3054,7 +3054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G7" t="s">
@@ -3106,7 +3106,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3965,6 +3965,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{6B7239B6-A6EC-439E-94B0-4C7C87E6BD6E}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{11C14451-B6D9-4673-A2DD-635C89CB9635}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3973,21 +3977,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29708AB-8FDE-4348-BA4C-1372B4395DEB}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4351,7 +4355,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4845,7 +4849,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4871,7 +4875,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -5079,7 +5083,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -5287,7 +5291,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -5391,7 +5395,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -5495,7 +5499,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -6015,7 +6019,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -6041,7 +6045,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -6223,7 +6227,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -6379,7 +6383,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -6431,7 +6435,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -6457,7 +6461,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -6535,7 +6539,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -6587,7 +6591,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>39</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -6743,7 +6747,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -6795,7 +6799,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -6847,7 +6851,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -6899,7 +6903,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -6951,7 +6955,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>41</v>
       </c>
@@ -6977,7 +6981,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>42</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>42</v>
       </c>
@@ -7107,7 +7111,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>42</v>
       </c>
